--- a/data/spanish.xlsx
+++ b/data/spanish.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">how are you? (familiar)</t>
   </si>
   <si>
-    <t xml:space="preserve">cómo estás (tú)?</t>
+    <t xml:space="preserve">cómo estas (tu)?</t>
   </si>
   <si>
     <t xml:space="preserve">cómo estás</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">and you? (familiar)</t>
   </si>
   <si>
-    <t xml:space="preserve">y tú?</t>
+    <t xml:space="preserve">(y tú/y tu)?</t>
   </si>
   <si>
     <t xml:space="preserve">ch01;introductions</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">how are you? (formal)</t>
   </si>
   <si>
-    <t xml:space="preserve">cómo está usted?</t>
+    <t xml:space="preserve">cómo esta usted?</t>
   </si>
   <si>
     <t xml:space="preserve">cómo está</t>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">you are (singular, trait)</t>
   </si>
   <si>
-    <t xml:space="preserve">tú eres</t>
+    <t xml:space="preserve">tu eres</t>
   </si>
   <si>
     <t xml:space="preserve">he is (trait)</t>
@@ -1141,7 +1141,7 @@
     <t xml:space="preserve">it's 9:15</t>
   </si>
   <si>
-    <t xml:space="preserve">son las nueve y cuatro</t>
+    <t xml:space="preserve">son las nueve y cuarto</t>
   </si>
   <si>
     <t xml:space="preserve">i am (state)</t>
@@ -1153,19 +1153,19 @@
     <t xml:space="preserve">you are (singular, state)</t>
   </si>
   <si>
-    <t xml:space="preserve">tú estás</t>
+    <t xml:space="preserve">tu estas</t>
   </si>
   <si>
     <t xml:space="preserve">he is (state)</t>
   </si>
   <si>
-    <t xml:space="preserve">el está</t>
+    <t xml:space="preserve">el esta</t>
   </si>
   <si>
     <t xml:space="preserve">she is (state)</t>
   </si>
   <si>
-    <t xml:space="preserve">ella está</t>
+    <t xml:space="preserve">ella esta</t>
   </si>
   <si>
     <t xml:space="preserve">music</t>
@@ -1321,10 +1321,10 @@
     <t xml:space="preserve">les gusta</t>
   </si>
   <si>
-    <t xml:space="preserve">are you? (familiar, state)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(tú) eres?</t>
+    <t xml:space="preserve">are you? (familiar, trait)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(tu) eres?</t>
   </si>
   <si>
     <t xml:space="preserve">eres?</t>
@@ -7091,7 +7091,7 @@
   <dimension ref="A1:S1561"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7182,7 +7182,7 @@
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -7199,7 +7199,7 @@
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -7396,7 +7396,7 @@
       <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -7698,7 +7698,7 @@
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -9526,7 +9526,7 @@
       <c r="A170" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="4" t="s">
         <v>373</v>
       </c>
       <c r="C170" s="6" t="s">
@@ -9552,7 +9552,7 @@
       <c r="A172" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C172" s="6" t="s">
@@ -9565,7 +9565,7 @@
       <c r="A173" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C173" s="6" t="s">
@@ -9578,7 +9578,7 @@
       <c r="A174" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="4" t="s">
         <v>381</v>
       </c>
       <c r="C174" s="6" t="s">
@@ -9914,7 +9914,7 @@
       <c r="A200" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="4" t="s">
         <v>434</v>
       </c>
       <c r="C200" s="6" t="s">
